--- a/df_prob.xlsx
+++ b/df_prob.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,22 +533,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[28/05/2024 17:05:37] Alexsander Takashi Hamada: 28:05 Analia - Alex saída 15:45</t>
+          <t>[09/06/2024 06:01:41] Alessandre Luiz Braga Junior: 09/06 Villa - Alessandre entrada 05:40 (D1)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>28/05/2024</t>
+          <t>09/06/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ALEXSANDER TAKASHI HAMADA</t>
+          <t>ALESSANDRE LUIZ BRAGA JUNIOR</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>28:05 ANALIA  -  ALEX SAÍDA 15:45</t>
+          <t xml:space="preserve">09/06 VILLA  -  ALESSANDRE ENTRADA 05:40  ( D1 ) </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -574,22 +574,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[28/05/2024 06:40:02] Camila Resende de Paula: 28/05 - HCT -C. Resende entrada 06:30h</t>
+          <t>[02/06/2024 19:49:13] Alexandre Amaral Lucas: 02/06 Jabaquara  - alexandre Amaral- entrada 19:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>28/05/2024</t>
+          <t>02/06/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CAMILA RESENDE DE PAULA</t>
+          <t>ALEXANDRE AMARAL LUCAS</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28/05  -  HCT  - C. RESENDE ENTRADA 06:30H</t>
+          <t>02/06 JABAQUARA   -  ALEXANDRE AMARAL -  ENTRADA 19:30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -615,22 +615,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[29/05/2024 01:12:04] Carlos Augusto Trevisan: 28/05 VILLA - Carlos saída 01:10</t>
+          <t>[12/06/2024 22:39:38] Alexsander Takashi Hamada: 04/06 Analia - Alex dispensa</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>29/05/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CARLOS AUGUSTO TREVISAN</t>
+          <t>ALEXSANDER TAKASHI HAMADA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28/05 VILLA  -  CARLOS SAÍDA 01:10</t>
+          <t>04/06 ANALIA  -  ALEX DISPENSA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,22 +656,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[27/05/2024 20:03:01] Fernanda Teles Ribeiro: 27/05 Itaim - Fernanda saída 20h</t>
+          <t>[16/06/2024 09:18:05] Alexsander Takashi Hamada: 16/06 Morumbi Alex entrada 7:30 (D2b)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>27/05/2024</t>
+          <t>16/06/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>FERNANDA TELES RIBEIRO</t>
+          <t>ALEXSANDER TAKASHI HAMADA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27/05 ITAIM  -  FERNANDA SAÍDA 20H</t>
+          <t xml:space="preserve">16/06 MORUMBI ALEX ENTRADA 7:30  ( D2B ) </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -697,22 +697,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[28/05/2024 06:13:50] Fernanda Teles Ribeiro: 28/05 Itaim - Fernanda entrada 06h</t>
+          <t>[16/06/2024 13:55:17] Alexsander Takashi Hamada: 16/06 Morumbi Alex saida 13:40 (D2b)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>28/05/2024</t>
+          <t>16/06/2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FERNANDA TELES RIBEIRO</t>
+          <t>ALEXSANDER TAKASHI HAMADA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28/05 ITAIM  -  FERNANDA ENTRADA 06H</t>
+          <t xml:space="preserve">16/06 MORUMBI ALEX SAIDA 13:40  ( D2B ) </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -738,22 +738,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[27/05/2024 19:31:58] Gabriela Meireles Linhares de Araujo: 27/05 G.Linhares saída 19:00h</t>
+          <t>[17/06/2024 08:27:29] Alexsander Takashi Hamada: 02/06 Analia Alex entrada 9:00 ( D2 Villa)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>27/05/2024</t>
+          <t>17/06/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GABRIELA MEIRELES LINHARES DE ARAUJO</t>
+          <t>ALEXSANDER TAKASHI HAMADA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27/05 G.LINHARES SAÍDA 19:00H</t>
+          <t xml:space="preserve">02/06 ANALIA ALEX ENTRADA 9:00  (  D2 VILLA ) </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -779,22 +779,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[28/05/2024 06:33:49] Pedro Belintani de Maio: 28/05 - HCT - Belintani entrada 06:20h</t>
+          <t>[17/06/2024 08:27:55] Alexsander Takashi Hamada: 02/06 Analia Alex saída 12:40 ( D2 Villa)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>28/05/2024</t>
+          <t>17/06/2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PEDRO BELINTANI DE MAIO</t>
+          <t>ALEXSANDER TAKASHI HAMADA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>28/05  -  HCT  -  BELINTANI ENTRADA 06:20H</t>
+          <t xml:space="preserve">02/06 ANALIA ALEX SAÍDA 12:40  (  D2 VILLA ) </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -820,22 +820,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[28/05/2024 13:37:33] Pedro Belintani de Maio: 28/05 - HCT - Belintani saída 13:35h</t>
+          <t>[02/06/2024 19:36:33] Ana Clara Mourão Barreto: 02/06 Itaim Clara entrada 19:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>28/05/2024</t>
+          <t>02/06/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PEDRO BELINTANI DE MAIO</t>
+          <t>ANA CLARA MOURAO BARRETO</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28/05  -  HCT  -  BELINTANI SAÍDA 13:35H</t>
+          <t>02/06 ITAIM CLARA ENTRADA 19:00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -861,22 +861,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[28/05/2024 10:59:39] Fabiana Soares Gama: 28/05 Villa Fabiana Gama saída 10:50 ( motivo saúde )</t>
+          <t>[07/06/2024 06:15:56] Bruno Stornioli Taguchi Lemos: 07/06 Einstein Bruno Lemos entrada 05:20</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>28/05/2024</t>
+          <t>07/06/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FABIANA SOARES GAMA</t>
+          <t>BRUNO STORNIOLI TAGUCHI LEMOS</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">28/05 VILLA FABIANA GAMA SAÍDA 10:50  (  MOTIVO SAÚDE  ) </t>
+          <t>07/06 EINSTEIN BRUNO LEMOS ENTRADA 05:20</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -884,16 +884,8 @@
           <t>PROB</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>28/05/2024</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>10:50</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -910,22 +902,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[28/05/2024 21:11:50] Arthur Oliveira Facchini: 28/05 Jabaquara Facchini saída 21:00</t>
+          <t>[16/06/2024 11:16:13] Caio Tulio Duarte: 16/06 ANÁLIA - Caio entrada 07:00 (D3B)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>28/05/2024</t>
+          <t>16/06/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ARTHUR OLIVEIRA FACCHINI</t>
+          <t>CAIO TULIO DUARTE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28/05 JABAQUARA FACCHINI SAÍDA 21:00</t>
+          <t xml:space="preserve">16/06 ANÁLIA  -  CAIO ENTRADA 07:00  ( D3B ) </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -933,86 +925,40 @@
           <t>PROB</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>28/05/2024</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>JABAQUARA</t>
-        </is>
-      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>SAIDA</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>02:00</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>noturno saida</t>
-        </is>
-      </c>
-      <c r="O11" t="n">
-        <v>4</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>SEMANA - NOTURNO - SAIDA</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>semana</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>JABA</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>SEMANA - NOTURNO - SAIDA</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[29/05/2024 05:19:04] Gabriella Gadelha Sarmento: 29/05 Itaim - Gabriella entrada 05:20</t>
+          <t>[16/06/2024 11:16:31] Caio Tulio Duarte: 16/06 ANÁLIA - Caio saída 11:15 (D3B)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>29/05/2024</t>
+          <t>16/06/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GABRIELLA GADELHA SARMENTO</t>
+          <t>CAIO TULIO DUARTE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29/05 ITAIM  -  GABRIELLA ENTRADA 05:20</t>
+          <t xml:space="preserve">16/06 ANÁLIA  -  CAIO SAÍDA 11:15  ( D3B ) </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1020,86 +966,40 @@
           <t>PROB</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>29/05/2024</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ITAIM</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>ENTRADA</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>05:00</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>02:00</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>6h</t>
-        </is>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>SEMANA - 6HS</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>semana</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>ITAIM</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>SEMANA - 6HS</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[27/05/2024 18:22:11] Marcos Bastos dos Santos: 27/05 Morumbi - Bastos - entrada 06:00</t>
+          <t>[18/06/2024 19:31:18] Carlos Eduardo Corrêa Grilo: 18:06 Anália - Cadu saída 19:20</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>27/05/2024</t>
+          <t>18/06/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MARCOS BASTOS DOS SANTOS</t>
+          <t>CARLOS EDUARDO CORREA GRILO</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27/05 MORUMBI  -  BASTOS  -  ENTRADA 06:00</t>
+          <t>18:06 ANÁLIA  -  CADU SAÍDA 19:20</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1107,86 +1007,40 @@
           <t>PROB</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>27/05/2024</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>MORUMBI</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>ENTRADA</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>06:00</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>01:00</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>6h</t>
-        </is>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>SEMANA - 6HS</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>semana</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>MORUMBI</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>SEMANA - 6HS</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[28/05/2024 05:58:46] Paloma Kiyomi Taguchi: 28/05 JABAQUARA - Paloma entrada 6:00</t>
+          <t>[10/06/2024 05:29:37] Cláudio Mueller Kakuda: 10/06 Maternidade Kakuda entada 5:20</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>28/05/2024</t>
+          <t>10/06/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PALOMA KIYOMI TAGUCHI</t>
+          <t>CLAUDIO MUELLER KAKUDA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>28/05 JABAQUARA  -  PALOMA ENTRADA 6:00</t>
+          <t>10/06 MATERNIDADE KAKUDA ENTADA 5:20</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1194,86 +1048,40 @@
           <t>PROB</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>28/05/2024</t>
-        </is>
-      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>JABAQUARA</t>
-        </is>
-      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>ENTRADA</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>06:00</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>01:00</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>6h</t>
-        </is>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>SEMANA - 6HS</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>semana</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>JABA</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>SEMANA - 6HS</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[28/05/2024 04:18:40] Vitor Oliveira André: 28/05 VNS Vitor entrada 04:15</t>
+          <t>[09/06/2024 10:47:14] Débora Philippi Bressane: 09/06 Villa Débora Bressane saída 10:40 (D3)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>28/05/2024</t>
+          <t>09/06/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>VITOR OLIVEIRA ANDRE</t>
+          <t>DEBORA PHILIPPI BRESSANE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>28/05 VNS VITOR ENTRADA 04:15</t>
+          <t xml:space="preserve">09/06 VILLA DÉBORA BRESSANE SAÍDA 10:40  ( D3 ) </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1281,86 +1089,40 @@
           <t>PROB</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>28/05/2024</t>
-        </is>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VNS</t>
-        </is>
-      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>ENTRADA</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>04:00</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>03:00</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>6h</t>
-        </is>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>SEMANA - 6HS</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>semana</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>VNS</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>SEMANA - 6HS</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[31/05/2024 07:49:52] Fabiana Soares Gama: 31/05 Anália Fabiana Gama dispensa</t>
+          <t>[16/06/2024 15:26:53] Diogo Candeo Rodrigues Cordeiro: 16/06 Anália - Candeo entrada às 07:30 (D2)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>31/05/2024</t>
+          <t>16/06/2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>FABIANA SOARES GAMA</t>
+          <t>DIOGO CANDEO RODRIGUES CORDEIRO</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>31/05 ANÁLIA FABIANA GAMA DISPENSA</t>
+          <t xml:space="preserve">16/06 ANÁLIA  -  CANDEO ENTRADA ÀS 07:30  ( D2 ) </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1386,22 +1148,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[31/05/2024 10:07:33] Pedro Belintani de Maio: Deslocado Analia (pos Jabaquara)</t>
+          <t>[16/06/2024 15:27:10] Diogo Candeo Rodrigues Cordeiro: 16/06 Anália - Candeo saída às 14:00 (D2) ‎&lt;Mensagem editada&gt;</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>31/05/2024</t>
+          <t>16/06/2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PEDRO BELINTANI DE MAIO</t>
+          <t>DIOGO CANDEO RODRIGUES CORDEIRO</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">DESLOCADO ANALIA  ( POS JABAQUARA ) </t>
+          <t>16/06 ANÁLIA  -  CANDEO SAÍDA ÀS 14:00  ( D2 )  ‎&lt;MENSAGEM EDITADA&gt;</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1427,87 +1189,6851 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[30/05/2024 05:21:41] Renata Togeiro Bastos Godoy de Faria: 30/05 MORUMBI - Renata Togeiro entrada 5:00</t>
+          <t>[09/06/2024 10:19:47] Erick Oliveira Lima Gomes: 09/06 Morumbi - Erick entrada 07:00 (D2B) ‎&lt;Mensagem editada&gt;</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>30/05/2024</t>
+          <t>09/06/2024</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>ERICK OLIVEIRA LIMA GOMES</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>09/06 MORUMBI  -  ERICK ENTRADA 07:00  ( D2B )  ‎&lt;MENSAGEM EDITADA&gt;</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>[09/06/2024 17:38:53] Erick Oliveira Lima Gomes: 09/06 Morumbi - Erick saída 17:35 (D2B)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>09/06/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ERICK OLIVEIRA LIMA GOMES</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09/06 MORUMBI  -  ERICK SAÍDA 17:35  ( D2B ) </t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>[09/06/2024 11:06:01] Estanrley Barcelos Pinto: 09/06 MORUMBI-Estanrley saída: 10:50 (D3)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>09/06/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ESTANRLEY BARCELOS PINTO</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09/06 MORUMBI - ESTANRLEY SAÍDA: 10:50  ( D3 ) </t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>[18/06/2024 13:32:28] Fábio Antônio de Souza Oliveira: 18/06 Itaim Fabio entrada 6hs</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>18/06/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>FABIO ANTONIO DE SOUZA OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18/06 ITAIM FABIO ENTRADA 6HS</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>[09/06/2024 08:04:50] Fábio Yuji Suguita: 09/06 santa yuji entrada 07:00 (D1 santa)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>09/06/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>FABIO YUJI SUGUITA</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09/06 SANTA YUJI ENTRADA 07:00  ( D1 SANTA ) </t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>[09/06/2024 12:20:31] Fábio Yuji Suguita: 09/06 santa yuji saída 12:20 (d1)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>09/06/2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>FABIO YUJI SUGUITA</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09/06 SANTA YUJI SAÍDA 12:20  ( D1 ) </t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>[03/06/2024 16:41:04] Fernanda Teles Ribeiro: 03/06 Itaim - Fernanda entrada 06h</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>03/06/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>FERNANDA TELES RIBEIRO</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>03/06 ITAIM  -  FERNANDA ENTRADA 06H</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>[16/06/2024 20:46:15] Fernanda Teles Ribeiro: 16/06 Villa - Fernanda saída 16:40 ( D2 )</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>16/06/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>FERNANDA TELES RIBEIRO</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16/06 VILLA  -  FERNANDA SAÍDA 16:40  (  D2  ) </t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>[16/06/2024 09:07:02] Filipe Maeda Hashi Abdalla Martins: 16/06 Alpha Maeda entrada 9;00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>16/06/2024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>FILIPE MAEDA HASHI ABDALLA MARTINS</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16/06 ALPHA MAEDA ENTRADA 9;00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>[09/06/2024 19:50:28] Francisco José Lucena Bezerra: 09/06 VILLA - Lucena - saída 11:35 (D2)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>09/06/2024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>FRANCISCO JOSE LUCENA BEZERRA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09/06 VILLA  -  LUCENA  -  SAÍDA 11:35  ( D2 ) </t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>[16/06/2024 09:15:57] Francisco José Lucena Bezerra: 16/06 MORUMBI - Lucena - entrada 08:00 (D2R)</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>16/06/2024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>FRANCISCO JOSE LUCENA BEZERRA</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16/06 MORUMBI  -  LUCENA  -  ENTRADA 08:00  ( D2R ) </t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>[16/06/2024 16:57:07] Francisco José Lucena Bezerra: 16/06 MORUMBI - Lucena - saída 16:50 (D2R) ‎&lt;Mensagem editada&gt;</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>16/06/2024</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>FRANCISCO JOSE LUCENA BEZERRA</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>16/06 MORUMBI  -  LUCENA  -  SAÍDA 16:50  ( D2R )  ‎&lt;MENSAGEM EDITADA&gt;</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>[13/06/2024 13:33:35] Icaro Moura de Sousa: ‎‎Icaro Moura de Sousa mudou de número de telefone. ‎Toque para enviar mensagem ou para adicionar o novo número.</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>13/06/2024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ICARO MOURA DE SOUSA</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>‎‎ICARO MOURA DE SOUSA MUDOU DE NÚMERO DE TELEFONE. ‎TOQUE PARA ENVIAR MENSAGEM OU PARA ADICIONAR O NOVO NÚMERO.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>[04/06/2024 00:46:17] Isaque Camilo da Silva: ‎‎Isaque Camilo da Silva mudou de número de telefone. ‎Toque para enviar mensagem ou para adicionar o novo número.</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>04/06/2024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ISAQUE CAMILO DA SILVA</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>‎‎ISAQUE CAMILO DA SILVA MUDOU DE NÚMERO DE TELEFONE. ‎TOQUE PARA ENVIAR MENSAGEM OU PARA ADICIONAR O NOVO NÚMERO.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>[03/06/2024 06:02:38] José Carlos Tuna Scarpa: 02/06 Osasco José Carlos Entrada 11:00 (D2)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>03/06/2024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>JOSE CARLOS TUNA SCARPA</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">02/06 OSASCO JOSÉ CARLOS ENTRADA 11:00  ( D2 ) </t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>[03/06/2024 06:03:03] José Carlos Tuna Scarpa: 02/06 Osasco José Carlos Saída 16:00 (D2)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>03/06/2024</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>JOSE CARLOS TUNA SCARPA</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">02/06 OSASCO JOSÉ CARLOS SAÍDA 16:00  ( D2 ) </t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>[06/06/2024 07:39:00] Karen Yumi Miyashiro: 06/06 Villa - Yumi dispensa</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>06/06/2024</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>KAREN YUMI MIYASHIRO</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>06/06 VILLA  -  YUMI DISPENSA</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>[09/06/2024 06:03:26] Lucas Silva Martins: 09/06 Osasco - silva entrada 06:00 (D1)</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>09/06/2024</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>LUCAS SILVA MARTINS</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09/06 OSASCO  -  SILVA ENTRADA 06:00  ( D1 ) </t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>[04/06/2024 07:42:54] Luciano Angelo Richetti: 04/06 SANTA Luciano 06:00</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>04/06/2024</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>LUCIANO ANGELO RICHETTI</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>04/06 SANTA LUCIANO 06:00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>[09/06/2024 09:26:45] Manoel Célio Moura Junior: D1R</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>09/06/2024</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>MANOEL CELIO MOURA JUNIOR</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>D1R</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>[16/06/2024 22:23:03] Marcela Leite Rosignoli: 16/06 Osasco Marcela Leite saída 22:20 (D1 JBQ)</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>16/06/2024</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>MARCELA LEITE ROSIGNOLI</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16/06 OSASCO MARCELA LEITE SAÍDA 22:20  ( D1 JBQ ) </t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>[16/06/2024 11:18:09] Marcelo Seiji Takaoka: 16/06 Villa - Takaoka entrada 09:00 (D3B)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>16/06/2024</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>MARCELO SEIJI TAKAOKA</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16/06 VILLA  -  TAKAOKA ENTRADA 09:00  ( D3B ) </t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>[16/06/2024 15:30:47] Marcelo Seiji Takaoka: 16/06 Villa - Takaoka saída 13:10 (D3B)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>16/06/2024</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>MARCELO SEIJI TAKAOKA</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16/06 VILLA  -  TAKAOKA SAÍDA 13:10  ( D3B ) </t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>[18/06/2024 05:21:20] Marcos Rogério Pereira Machado Filho: 18/06 Santa Marcos entrara 5:20</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>18/06/2024</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>MARCOS ROGERIO PEREIRA MACHADO FILHO</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>18/06 SANTA MARCOS ENTRARA 5:20</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>[09/06/2024 07:49:25] Maria Teresa Souza Gomes: 09/06 Santa - M Teresa entrada 07:30 (D2 - deslocada Osasco)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>09/06/2024</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>MARIA TERESA SOUZA GOMES</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09/06 SANTA  -  M TERESA ENTRADA 07:30  ( D2  -  DESLOCADO OSASCO ) </t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>[09/06/2024 12:30:39] Maria Teresa Souza Gomes: 09/06 Santa - M Teresa saída  12:10 (D2 - deslocada Osasco)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>09/06/2024</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>MARIA TERESA SOUZA GOMES</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09/06 SANTA  -  M TERESA SAÍDA  12:10  ( D2  -  DESLOCADO OSASCO ) </t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>[12/06/2024 16:16:26] Marina Borges Curralo: 12/6 Maternidade Marina 16:15</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>12/06/2024</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>MARINA BORGES CURRALO</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>12/6 MATERNIDADE MARINA 16:15</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>[02/06/2024 10:39:46] Matheus Cardozo Janiques: 02/06 - Analia- Cardozo entrada 07:00 (D3B Analia)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>02/06/2024</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>MATHEUS CARDOZO JANIQUES</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">02/06  -  ANALIA -  CARDOZO ENTRADA 07:00  ( D3B ANALIA ) </t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>[02/06/2024 10:40:10] Matheus Cardozo Janiques: 02/06 - Analia- Cardozo saída 10:30 (D3B Analia)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>02/06/2024</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>MATHEUS CARDOZO JANIQUES</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">02/06  -  ANALIA -  CARDOZO SAÍDA 10:30  ( D3B ANALIA ) </t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>[09/06/2024 09:51:58] Matheus Viana Lemo: 09/06 alphamed viana entrada 09:40 (d3 osasco)</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>09/06/2024</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>MATHEUS VIANA LEMO</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09/06 ALPHAMED VIANA ENTRADA 09:40  ( D3 OSASCO ) </t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>[16/06/2024 18:07:24] Maurício Faria Tetti: 16/06 Analia Maurício saída 18:05 (D1)</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>16/06/2024</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>MAURICIO FARIA TETTI</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16/06 ANALIA MAURÍCIO SAÍDA 18:05  ( D1 ) </t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>[13/06/2024 21:23:44] Maxvilano Lima de Macedo: 13/06 Osasco Maxvilano saída 21.20</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>13/06/2024</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>MAXVILANO LIMA DE MACEDO</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>13/06 OSASCO MAXVILANO SAÍDA 21.20</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>[16/06/2024 14:31:20] Natalia  Yume Hissayasu Menezes: 16/06 Villa - Nat Yume entrada 07:15 (D3R)</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>16/06/2024</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>NATALIA YUME HISSAYASU MENEZES</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16/06 VILLA  -  NAT YUME ENTRADA 07:15  ( D3R ) </t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>[16/06/2024 14:32:09] Natalia  Yume Hissayasu Menezes: 16/06 Villa - Nat Yume saída 14:30 (D3R)</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>16/06/2024</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>NATALIA YUME HISSAYASU MENEZES</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16/06 VILLA  -  NAT YUME SAÍDA 14:30  ( D3R ) </t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>[04/06/2024 10:51:34] Natan Soares Silveira: 04/06 HCT - Natan - saída 10:30</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>04/06/2024</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>NATAN SOARES SILVEIRA</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>04/06 HCT  -  NATAN  -  SAÍDA 10:30</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>[07/06/2024 15:08:34] Natan Soares Silveira: 07/06 HCT - Natan - entrada 06:30</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>07/06/2024</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>NATAN SOARES SILVEIRA</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>07/06 HCT  -  NATAN  -  ENTRADA 06:30</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>[11/06/2024 06:37:11] Natan Soares Silveira: 11/06 HCT - Natan - entrada 06:30</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>11/06/2024</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>NATAN SOARES SILVEIRA</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>11/06 HCT  -  NATAN  -  ENTRADA 06:30</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>[11/06/2024 12:33:11] Natan Soares Silveira: 11/06 HCT - Natan - saída 12:30</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>11/06/2024</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>NATAN SOARES SILVEIRA</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>11/06 HCT  -  NATAN  -  SAÍDA 12:30</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>[14/06/2024 15:23:15] Natan Soares Silveira: 14/06 HCT - Natan - saida 15:20</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NATAN SOARES SILVEIRA</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>14/06 HCT  -  NATAN  -  SAIDA 15:20</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>[16/06/2024 09:17:34] Patrick Alexander Sauer Schues: 16/06 Osasco - Patrick entrada 09:15 (D1 HSI)</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>16/06/2024</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>PATRICK ALEXANDER SAUER SCHUES</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16/06 OSASCO  -  PATRICK ENTRADA 09:15  ( D1 HSI ) </t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>[10/06/2024 07:06:49] Pedro Henrique Milhomens da Mota: 09/06 Morumbi Mota entrada 5:15 (D2 Itaim)</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>10/06/2024</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>PEDRO HENRIQUE MILHOMENS DA MOTA</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09/06 MORUMBI MOTA ENTRADA 5:15  ( D2 ITAIM ) </t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>[10/06/2024 07:07:07] Pedro Henrique Milhomens da Mota: 09/06 Itaim Mota saída 11:40 (D2 Itaim)</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>10/06/2024</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>PEDRO HENRIQUE MILHOMENS DA MOTA</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09/06 ITAIM MOTA SAÍDA 11:40  ( D2 ITAIM ) </t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>[08/06/2024 08:03:39] Ricardo Barbosa Viana Filho: 08/06 Analia - Barbosa 06:00</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>08/06/2024</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>RICARDO BARBOSA VIANA FILHO</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>08/06 ANALIA  -  BARBOSA 06:00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>[18/06/2024 23:48:02] Rodrigo Miyashiro Nunes dos Santos: 18/06 JABAQUARA - Miyashiro saida 23:40</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>18/06/2024</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>RODRIGO MIYASHIRO NUNES DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>18/06 JABAQUARA  -  MIYASHIRO SAIDA 23:40</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>[17/06/2024 01:53:12] Saullo Queiroz Silveira: 16/06 Itaim Saullo entrada 20:30</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>17/06/2024</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>SAULLO QUEIROZ SILVEIRA</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>16/06 ITAIM SAULLO ENTRADA 20:30</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>[17/06/2024 01:53:49] Saullo Queiroz Silveira: 16/06 itaim Saullo saída 01:30</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>17/06/2024</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>SAULLO QUEIROZ SILVEIRA</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>16/06 ITAIM SAULLO SAÍDA 01:30</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>[19/06/2024 00:32:00] Sidney Orlando de Souza: 18/06 Osasco -Sidney-saida 23:40</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>19/06/2024</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>SIDNEY ORLANDO DE SOUZA</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>18/06 OSASCO  - SIDNEY - SAIDA 23:40</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>[17/06/2024 08:50:34] Thaís Miranda Ramos: 16/06 OSASCO - Miranda entrada às 20:50</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>17/06/2024</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>THAIS MIRANDA RAMOS</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>16/06 OSASCO  -  MIRANDA ENTRADA ÀS 20:50</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>[09/06/2024 05:46:21] Thiago de Oliveira Heringer: 09/06 Morumbi - Heringer entrada 05:45 (D2R)</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>09/06/2024</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>THIAGO DE OLIVEIRA HERINGER</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09/06 MORUMBI  -  HERINGER ENTRADA 05:45  ( D2R ) </t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>[09/06/2024 18:53:52] Thiago de Oliveira Heringer: 09/06 Morumbi - Heringer saída 18:50 (D2R)</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>09/06/2024</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>THIAGO DE OLIVEIRA HERINGER</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09/06 MORUMBI  -  HERINGER SAÍDA 18:50  ( D2R ) </t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>[13/06/2024 09:30:51] Turibio Rodrigues Freire Neto: 13/06 - Osasco - Turibio - distância Entrada: 06:10 (Cir a pedido VNS)</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>13/06/2024</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>TURIBIO RODRIGUES FREIRE NETO</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13/06  -  OSASCO  -  TURIBIO  -  DISTÂNCIA ENTRADA: 06:10  ( CIR A PEDIDO VNS ) </t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>[16/06/2024 07:58:18] Vanessa Paciullo Marossi: 16/06 Villa - Vanessa entrada 07:30 (D1 HCT)</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>16/06/2024</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>VANESSA PACIULLO MAROSSI</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16/06 VILLA  -  VANESSA ENTRADA 07:30  ( D1 HCT ) </t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>[07/06/2024 17:05:08] Victor Augusto de Souza Moraes: 07/06 Itaim - V.Augusto 17:05</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>07/06/2024</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>VICTOR AUGUSTO DE SOUZA MORAES</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>07/06 ITAIM  -  V.AUGUSTO 17:05</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>[09/06/2024 06:20:14] Vitor Luiz Assunção Martins: 09/06 Morumbi - Assunção entrada 05:30 (D1)</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>09/06/2024</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>VITOR LUIZ ASSUNCAO MARTINS</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09/06 MORUMBI  -  ASSUNÇÃO ENTRADA 05:30  ( D1 ) </t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>[09/06/2024 10:41:25] Vivianna Bovério Galzerani: 09/06 Morumbi Vivianna saída 10:40 (d3 Jabaquara)</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>09/06/2024</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>VIVIANNA BOVERIO GALZERANI</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09/06 MORUMBI VIVIANNA SAÍDA 10:40  ( D3 JABAQUARA ) </t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>[19/06/2024 00:20:10] Vivianna Bovério Galzerani: 18/06 Jabaquara Vivianna saída 00:20 (distância)</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>19/06/2024</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>VIVIANNA BOVERIO GALZERANI</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18/06 JABAQUARA VIVIANNA SAÍDA 00:20  ( DISTÂNCIA ) </t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>[14/06/2024 20:28:44] Gustavo Marques da Silva: 14/06 Itaim - Marques 11:00 - 23:00h (dispensado por saúde)</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>GUSTAVO MARQUES DA SILVA</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14/06 ITAIM  -  MARQUES 11:00  -  23:00H  ( DISPENSADO POR SAÚDE ) </t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>[05/06/2024 07:50:03] Leticia Fernandes Borges: 05/06 Itaim Letícia saída 7:40 ( dispensa saúde )</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>05/06/2024</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>LETICIA FERNANDES BORGES</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">05/06 ITAIM LETÍCIA SAÍDA 7:40  (  DISPENSADOSAÚDE  ) </t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>05/06/2024</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>7:40</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>[10/06/2024 15:05:47] Thayse Fachin Cormanique Kayser: 10/06 ANÁLIA - Thayse saída 12:35 (dispensa saúde)</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>10/06/2024</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>THAYSE FACHIN CORMANIQUE KAYSER</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/06 ANÁLIA  -  THAYSE SAÍDA 12:35  ( DISPENSADOSAÚDE ) </t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>10/06/2024</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>12:35</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>[02/06/2024 19:48:51] Alexandre Amaral Lucas: 02/06 Jabaquara  - alexandre Amaral- saida 15:30</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>02/06/2024</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>ALEXANDRE AMARAL LUCAS</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>02/06 JABAQUARA   -  ALEXANDRE AMARAL -  SAIDA 15:30</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>02/06/2024</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>JABAQUARA</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>SAIDA</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>02:30</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>tarde</t>
+        </is>
+      </c>
+      <c r="O77" t="n">
+        <v>3</v>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>FDS - SAIDA</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>fds</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>JABA</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>FDS - SAIDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>[12/06/2024 11:34:58] Caio Tulio Duarte: 12/06 Alpha - Caio saída 10:40</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>12/06/2024</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>CAIO TULIO DUARTE</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>12/06 ALPHA  -  CAIO SAÍDA 10:40</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>PROBS</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>12/06/2024</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>ALPHA</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>SAIDA</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>04:00</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>manha</t>
+        </is>
+      </c>
+      <c r="O78" t="n">
+        <v>2</v>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>SEMANA - MANHA - C.CIRURGICO</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>semana</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>ALPHA</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>SEMANA - MANHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>[02/06/2024 05:52:08] Caroline Firmino Lemes da Silva: 02/06 Morumbi Lemes entrada 05:20</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>02/06/2024</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>CAROLINE FIRMINO LEMES DA SILVA</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>02/06 MORUMBI LEMES ENTRADA 05:20</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>02/06/2024</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>MORUMBI</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="O79" t="n">
+        <v>1</v>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>FDS - 6HS</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>fds</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>MORUMBI</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>FDS - 6HS</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>[17/06/2024 06:32:25] Eduardo Dala Rosa Soares: 17/06 VNS - Soares entrada 06:30</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>17/06/2024</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>EDUARDO DALA ROSA SOARES</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>17/06 VNS  -  SOARES ENTRADA 06:30</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>17/06/2024</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>VNS</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>06:30</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>00:30</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="O80" t="n">
+        <v>1</v>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>SEMANA - 6HS</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>semana</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>VNS</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>SEMANA - 6HS</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>[07/06/2024 07:04:44] Felipe Coelho de Souza: 07/06 Itaim - Coelho saída 07:00 (extra) Assumo rotina</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>07/06/2024</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>FELIPE COELHO DE SOUZA</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>07/06 ITAIM  -  COELHO SAÍDA 07:00  ( EXTRA )  ASSUMO ROTINA</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>07/06/2024</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>ITAIM</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>extra</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>SAIDA</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>06:00</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>manha</t>
+        </is>
+      </c>
+      <c r="O81" t="n">
+        <v>2</v>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>SEMANA - MANHA - C.CIRURGICO</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>semana</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>ITAIM</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>SEMANA - MANHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>[07/06/2024 16:32:02] Felipe Coelho de Souza: 07/06 Itaim - Coelho saída 16:25</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>07/06/2024</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>FELIPE COELHO DE SOUZA</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>07/06 ITAIM  -  COELHO SAÍDA 16:25</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>07/06/2024</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>ITAIM</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>SAIDA</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>03:30</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>tarde</t>
+        </is>
+      </c>
+      <c r="O82" t="n">
+        <v>3</v>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>SEMANA - TARDE - C.CIRURGICO</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>semana</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>ITAIM</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>SEMANA - TARDE</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>[03/06/2024 06:02:15] Flavio Maia Castilho: 03/06 Morumbi - Castilho entrada 6:00</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>03/06/2024</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>FLAVIO MAIA CASTILHO</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>03/06 MORUMBI  -  CASTILHO ENTRADA 6:00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>03/06/2024</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>MORUMBI</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>06:00</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="O83" t="n">
+        <v>1</v>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>SEMANA - 6HS</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>semana</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>MORUMBI</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>SEMANA - 6HS</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>[15/06/2024 11:04:22] Francisco Antonio Alves Bonatto: 15/06 SANTA ISABEL - Francisco entrada 11:00</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>15/06/2024</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>FRANCISCO ANTONIO ALVES BONATTO</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>15/06 SANTA ISABEL  -  FRANCISCO ENTRADA 11:00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>15/06/2024</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>SANTA ISABEL</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>manha</t>
+        </is>
+      </c>
+      <c r="O84" t="n">
+        <v>2</v>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>FDS - MANHA - C.CIRURGICO</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>fds</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>SANTA</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>FDS - MANHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>[05/06/2024 05:17:49] Gabriella Gadelha Sarmento: 05/06 - Itaim Gabriella entrada 05:20</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>05/06/2024</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>GABRIELLA GADELHA SARMENTO</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>05/06  -  ITAIM GABRIELLA ENTRADA 05:20</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>05/06/2024</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>ITAIM</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="O85" t="n">
+        <v>1</v>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>SEMANA - 6HS</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>semana</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>ITAIM</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>SEMANA - 6HS</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>[12/06/2024 05:20:40] Gabriella Gadelha Sarmento: 12/06 Itaim - Gabriella entrada 05:20</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>12/06/2024</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>GABRIELLA GADELHA SARMENTO</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>12/06 ITAIM  -  GABRIELLA ENTRADA 05:20</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>12/06/2024</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>ITAIM</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="O86" t="n">
+        <v>1</v>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>SEMANA - 6HS</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>semana</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>ITAIM</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>SEMANA - 6HS</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>[19/06/2024 05:19:49] Gabriella Gadelha Sarmento: 19/06 Itaim - Gabriella entrada 05:20</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>19/06/2024</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>GABRIELLA GADELHA SARMENTO</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>19/06 ITAIM  -  GABRIELLA ENTRADA 05:20</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>19/06/2024</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>ITAIM</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="O87" t="n">
+        <v>1</v>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>SEMANA - 6HS</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>semana</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>ITAIM</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>SEMANA - 6HS</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>[07/06/2024 08:23:18] Guilherme de Almeida Costa: 07/06 itaim costa entrada 05:50</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>07/06/2024</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>GUILHERME DE ALMEIDA COSTA</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>07/06 ITAIM COSTA ENTRADA 05:50</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>07/06/2024</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>ITAIM</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>05:30</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>01:30</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="O88" t="n">
+        <v>1</v>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>SEMANA - 6HS</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>semana</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>ITAIM</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>SEMANA - 6HS</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>[10/06/2024 05:15:25] Leandro Eduardo França: 10/06 SANTA ISABEL - França entrada 05:00 (deslocado JABAQUARA)</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>10/06/2024</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>LEANDRO EDUARDO FRANCA</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/06 SANTA ISABEL  -  FRANÇA ENTRADA 05:00  ( DESLOCADO JABAQUARA ) </t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>10/06/2024</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>SANTA ISABEL</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="O89" t="n">
+        <v>1</v>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>SEMANA - 6HS</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>semana</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>['SANTA', 'JABA']</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>SEMANA - 6HS</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>[02/06/2024 05:57:01] Leandro Machado Deorce: 02/06 Morumbi - Deorce entrada 05:40</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>02/06/2024</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>LEANDRO MACHADO DEORCE</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>02/06 MORUMBI  -  DEORCE ENTRADA 05:40</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>02/06/2024</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>MORUMBI</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>05:30</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>01:30</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="O90" t="n">
+        <v>1</v>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>FDS - 6HS</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>fds</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>MORUMBI</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>FDS - 6HS</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>[08/06/2024 16:58:46] Leandro Machado Deorce: 08/06 Itaim - Deorce saída 16:45</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>08/06/2024</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>LEANDRO MACHADO DEORCE</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>08/06 ITAIM  -  DEORCE SAÍDA 16:45</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>08/06/2024</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>ITAIM</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>SAIDA</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>04:00</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>tarde</t>
+        </is>
+      </c>
+      <c r="O91" t="n">
+        <v>3</v>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>FDS - SAIDA</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>fds</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>ITAIM</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>FDS - SAIDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>[16/06/2024 18:28:39] Maiely Marcolin: 16/06 Itaim - Maiely saida 13:00</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>16/06/2024</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>MAIELY MARCOLIN</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>16/06 ITAIM  -  MAIELY SAIDA 13:00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>16/06/2024</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>ITAIM</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>SAIDA</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>06:00</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>manha</t>
+        </is>
+      </c>
+      <c r="O92" t="n">
+        <v>2</v>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>FDS - C.CIRURGICO ROTINA</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>fds</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>ITAIM</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>FDS ROTINA</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>[16/06/2024 11:02:40] Manoel de Souza Neto: 16/06 VNS Manoel saída 11:00</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>16/06/2024</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>MANOEL DE SOUZA NETO</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>16/06 VNS MANOEL SAÍDA 11:00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>16/06/2024</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>VNS</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>SAIDA</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>04:00</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>manha</t>
+        </is>
+      </c>
+      <c r="O93" t="n">
+        <v>2</v>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>FDS - C.CIRURGICO ROTINA</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>fds</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>VNS</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>FDS ROTINA</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>[17/06/2024 05:37:42] Marcela Leite Rosignoli: 17/06 Anália Marcela Leite entrada 05:30</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>17/06/2024</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>MARCELA LEITE ROSIGNOLI</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>17/06 ANÁLIA MARCELA LEITE ENTRADA 05:30</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>17/06/2024</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>ANALIA</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>05:30</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>01:30</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="O94" t="n">
+        <v>1</v>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>SEMANA - 6HS</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>semana</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>ANALIA</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>SEMANA - 6HS</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>[14/06/2024 15:22:14] Norival Scandelai Junior: 14/06 Itaim - Norival entrada 12:00</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>NORIVAL SCANDELAI JUNIOR</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>14/06 ITAIM  -  NORIVAL ENTRADA 12:00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>ITAIM</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>[01/06/2024 12:55:24] Patrick Alexander Sauer Schues: 01/06 Maternidade - Patrick entrada 13:00</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>PATRICK ALEXANDER SAUER SCHUES</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>01/06 MATERNIDADE  -  PATRICK ENTRADA 13:00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>MATERNIDADE</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>[16/06/2024 14:06:15] Patrick Alexander Sauer Schues: 16/05 Osasco - Patrick saída 14:05</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>16/06/2024</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>PATRICK ALEXANDER SAUER SCHUES</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>16/05 OSASCO  -  PATRICK SAÍDA 14:05</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>16/06/2024</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>OSASCO</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>SAIDA</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>[06/06/2024 05:05:02] Renata Togeiro Bastos Godoy de Faria: 06/06 MORUMBI - Renata Togeiro entrada 5:00</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>06/06/2024</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
           <t>RENATA TOGEIRO BASTOS GODOY DE FARIA</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>30/05 MORUMBI  -  RENATA TOGEIRO ENTRADA 5:00</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>PROB</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>30/05/2024</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>06/06 MORUMBI  -  RENATA TOGEIRO ENTRADA 5:00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>06/06/2024</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
         <is>
           <t>MORUMBI</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
         <is>
           <t>ENTRADA</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>[13/06/2024 18:15:58] Renata Togeiro Bastos Godoy de Faria: 13/06 MORUMBI - Renata Togeiro entrada 5:00</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>13/06/2024</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>RENATA TOGEIRO BASTOS GODOY DE FARIA</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>13/06 MORUMBI  -  RENATA TOGEIRO ENTRADA 5:00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>13/06/2024</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>MORUMBI</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>[17/06/2024 08:50:23] Thaís Miranda Ramos: 16/06 OSASCO - Miranda saída às 15:15</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>17/06/2024</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>THAIS MIRANDA RAMOS</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>16/06 OSASCO  -  MIRANDA SAÍDA ÀS 15:15</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>16/06/2024</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>OSASCO</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>SAIDA</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>[17/06/2024 08:51:10] Thaís Miranda Ramos: 16/06 OSASCO - Miranda saída às 22:30</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>17/06/2024</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>THAIS MIRANDA RAMOS</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>16/06 OSASCO  -  MIRANDA SAÍDA ÀS 22:30</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>16/06/2024</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>OSASCO</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>SAIDA</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>[17/06/2024 08:51:42] Thaís Miranda Ramos: 17/06 JABAQUARA - Miranda entrada às 06:40</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>17/06/2024</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>THAIS MIRANDA RAMOS</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>17/06 JABAQUARA  -  MIRANDA ENTRADA ÀS 06:40</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>17/06/2024</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>JABAQUARA</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>[17/06/2024 06:56:38] Vanessa Paciullo Marossi: 17/06 Anália- Vanessa entrada 06:00</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>17/06/2024</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>VANESSA PACIULLO MAROSSI</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>17/06 ANÁLIA -  VANESSA ENTRADA 06:00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>17/06/2024</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>ANALIA</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>[04/06/2024 05:19:24] Vitor Oliveira André: 04/06 VNS Vitor entrada 05:19</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>04/06/2024</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>VITOR OLIVEIRA ANDRE</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>04/06 VNS VITOR ENTRADA 05:19</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>04/06/2024</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>VNS</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>[22/06/2024 02:57:01] Alessandre Luiz Braga Junior: 22/06 Analia - alessandre saida 03:00 (Distancia)</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>22/06/2024</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>ALESSANDRE LUIZ BRAGA JUNIOR</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22/06 ANALIA  -  ALESSANDRE SAIDA 03:00  ( DISTANCIA ) </t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>[23/06/2024 12:17:30] Amanda Kiyoko Souza Kossaka: 23/06 ANÁLIA - Amanda entrada 08:20 (D3 Villa)</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>23/06/2024</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>AMANDA KIYOKO SOUZA KOSSAKA</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23/06 ANÁLIA  -  AMANDA ENTRADA 08:20  ( D3 VILLA ) </t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>[23/06/2024 12:44:01] Amanda Kiyoko Souza Kossaka: 23/06 ANÁLIA - Amanda saída 12:00 (D3 Villa)</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>23/06/2024</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>AMANDA KIYOKO SOUZA KOSSAKA</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23/06 ANÁLIA  -  AMANDA SAÍDA 12:00  ( D3 VILLA ) </t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>[23/06/2024 06:06:20] Ana Jung Docko: 23/06 Jabaquara Ana entrada 05:20 (D1)</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>23/06/2024</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>ANA JUNG DOCKO</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23/06 JABAQUARA ANA ENTRADA 05:20  ( D1 ) </t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>[19/06/2024 19:04:49] Bruno Stornioli Taguchi Lemos: 19/06 HIAE Bruno Lemos saída 19:00 (anestesia externa)</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>19/06/2024</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>BRUNO STORNIOLI TAGUCHI LEMOS</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19/06 HIAE BRUNO LEMOS SAÍDA 19:00  ( ANESTESIA EXTERNA ) </t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>[23/06/2024 11:26:49] Diogo Henrique Pereira Mattos: 23/06 Anália - Diogo entrada 07:00 (D3 Osasco)</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>23/06/2024</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>DIOGO HENRIQUE PEREIRA MATTOS</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23/06 ANÁLIA  -  DIOGO ENTRADA 07:00  ( D3 OSASCO ) </t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>[23/06/2024 11:27:09] Diogo Henrique Pereira Mattos: 23/06 Anália - Diogo saída 11:10 (D3 Osasco)</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>23/06/2024</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>DIOGO HENRIQUE PEREIRA MATTOS</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23/06 ANÁLIA  -  DIOGO SAÍDA 11:10  ( D3 OSASCO ) </t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>[21/06/2024 20:46:52] Fábio Antônio de Souza Oliveira: 21/06 entrada 7hs e saída 20hs ( Mayane fez o período no meu lugar)</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>21/06/2024</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>FABIO ANTONIO DE SOUZA OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21/06 ENTRADA 7HS E SAÍDA 20HS  (  MAYANE FEZ O PERÍODO NO MEU LUGAR ) </t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>[25/06/2024 06:18:37] Fábio Antônio de Souza Oliveira: 25/06 Itaim Fabio entrada 6hs</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>25/06/2024</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>FABIO ANTONIO DE SOUZA OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>25/06 ITAIM FABIO ENTRADA 6HS</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>[23/06/2024 07:32:04] Felipe de Oliveira Nunes: 23/06 Morumbi - Nunes entrada 05:30 (D2R)</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>23/06/2024</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>FELIPE DE OLIVEIRA NUNES</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23/06 MORUMBI  -  NUNES ENTRADA 05:30  ( D2R ) </t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>[23/06/2024 18:40:58] Felipe de Oliveira Nunes: 23/06 Morumbi - Nunes saída 18:40 (D2R)</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>23/06/2024</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>FELIPE DE OLIVEIRA NUNES</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23/06 MORUMBI  -  NUNES SAÍDA 18:40  ( D2R ) </t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>[21/06/2024 01:53:14] Fernando Ribeiro Sá: 21/06 Santa - Ribeiro saída 01:50 (distância)</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>21/06/2024</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>FERNANDO RIBEIRO SA</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21/06 SANTA  -  RIBEIRO SAÍDA 01:50  ( DISTÂNCIA ) </t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>[21/06/2024 00:12:23] Filipe Lugon Moulin Lima: 21/06 ITAIM - Filipe Lugon saida 00:10</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>21/06/2024</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>FILIPE LUGON MOULIN LIMA</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>21/06 ITAIM  -  FILIPE LUGON SAIDA 00:10</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>[24/06/2024 06:13:54] Flavio Hideki Oshika: 23/06 MORUMBI - Flávio saída 13:15 (D2 bom)</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>24/06/2024</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>FLAVIO HIDEKI OSHIKA</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23/06 MORUMBI  -  FLÁVIO SAÍDA 13:15  ( D2 BOM ) </t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>[21/06/2024 09:47:51] Gabriel de Aguiar Santana: 20/06 Itaim - Gabriel saída 02:20 (distância)</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>21/06/2024</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>GABRIEL DE AGUIAR SANTANA</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20/06 ITAIM  -  GABRIEL SAÍDA 02:20  ( DISTÂNCIA ) </t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>[20/06/2024 23:45:10] Gustavo Alvarenga Bicalho: 20/06 Itaim - Gustavo 23:40 (Coelho assume plantão) ‎&lt;Mensagem editada&gt;</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>20/06/2024</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>GUSTAVO ALVARENGA BICALHO</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>20/06 ITAIM  -  GUSTAVO 23:40  ( COELHO ASSUME PLANTÃO )  ‎&lt;MENSAGEM EDITADA&gt;</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>[23/06/2024 18:03:11] Gustavo Marques da Silva: 23/06 Osasco - Marques saída 13:30 (D2 Jabaquara)</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>23/06/2024</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>GUSTAVO MARQUES DA SILVA</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23/06 OSASCO  -  MARQUES SAÍDA 13:30  ( D2 JABAQUARA ) </t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>[21/06/2024 20:18:02] Helena Araujo Damasceno: 21/06 HVL Helena saída 17:10 ‎&lt;Mensagem editada&gt;</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>21/06/2024</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>HELENA ARAUJO DAMASCENO</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>21/06 HVL HELENA SAÍDA 17:10 ‎&lt;MENSAGEM EDITADA&gt;</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>[24/06/2024 14:43:38] Izabela Cristina Almeida Duarte: 24/06 Itaim Iza Duarte entrada 6h</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>24/06/2024</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>IZABELA CRISTINA ALMEIDA DUARTE</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>24/06 ITAIM IZA DUARTE ENTRADA 6H</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>[21/06/2024 05:15:57] Karoline Becker Paraboni: 21/06 Santa Karoline 05:15</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>21/06/2024</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>KAROLINE BECKER PARABONI</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>21/06 SANTA KAROLINE 05:15</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr"/>
+      <c r="S124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>[21/06/2024 07:09:31] Leonardo Barbosa Santos: 21/06 HSI - L. Santos entrada 4:50</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>21/06/2024</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>LEONARDO BARBOSA SANTOS</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>21/06 HSI  -  L. SANTOS ENTRADA 4:50</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>[21/06/2024 07:09:36] Leonardo Barbosa Santos: 21/06 HSI - L. Santos saída 7:00 (Coelho assume a rotina)</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>21/06/2024</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>LEONARDO BARBOSA SANTOS</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21/06 HSI  -  L. SANTOS SAÍDA 7:00  ( COELHO ASSUME A ROTINA ) </t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>[22/06/2024 07:34:06] Leonardo Barbosa Santos: 22/06 jabaquara L.Santos 6:30 (pedido coordenação)</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>22/06/2024</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>LEONARDO BARBOSA SANTOS</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22/06 JABAQUARA L.SANTOS 6:30  ( PEDIDO COORDENAÇÃO ) </t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="inlineStr"/>
+      <c r="S127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>[20/06/2024 23:41:12] Luciano Angelo Richetti: 20/6 Itaim Luciano saída 23:40</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>20/06/2024</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>LUCIANO ANGELO RICHETTI</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>20/6 ITAIM LUCIANO SAÍDA 23:40</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>[23/06/2024 07:42:59] Marcelo de Oliveira Peres: 23/06 Morumbi Marcelo entrada 05:25 (D1)</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>23/06/2024</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>MARCELO DE OLIVEIRA PERES</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23/06 MORUMBI MARCELO ENTRADA 05:25  ( D1 ) </t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
+      <c r="R129" t="inlineStr"/>
+      <c r="S129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>[23/06/2024 22:52:38] Marcelo de Oliveira Peres: 21/06 - Morumbi Marcelo saída 22:20 (D1)</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>23/06/2024</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>MARCELO DE OLIVEIRA PERES</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21/06  -  MORUMBI MARCELO SAÍDA 22:20  ( D1 ) </t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
+      <c r="R130" t="inlineStr"/>
+      <c r="S130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>[23/06/2024 12:57:28] Maria Teresa Souza Gomes: 23/06 Jabaquara - M Teresa entrada 7:00 (D3 Itaim)</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>23/06/2024</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>MARIA TERESA SOUZA GOMES</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23/06 JABAQUARA  -  M TERESA ENTRADA 7:00  ( D3 ITAIM ) </t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
+      <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>[23/06/2024 12:57:43] Maria Teresa Souza Gomes: 23/06 Jabaquara - M Teresa saída  12:55 (D3 Itaim)</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>23/06/2024</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>MARIA TERESA SOUZA GOMES</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23/06 JABAQUARA  -  M TERESA SAÍDA  12:55  ( D3 ITAIM ) </t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
+      <c r="R132" t="inlineStr"/>
+      <c r="S132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>[20/06/2024 00:32:43] Marina Pontes Moura Nascimento e Silva: 19/06 Osasco Moura saída 00:10</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>20/06/2024</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>MARINA PONTES MOURA NASCIMENTO E SILVA</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>19/06 OSASCO MOURA SAÍDA 00:10</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr"/>
+      <c r="R133" t="inlineStr"/>
+      <c r="S133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>[21/06/2024 08:52:29] Natan Soares Silveira: 21/06 HCT - Natan - entrada 06:40</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>21/06/2024</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>NATAN SOARES SILVEIRA</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>21/06 HCT  -  NATAN  -  ENTRADA 06:40</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr"/>
+      <c r="R134" t="inlineStr"/>
+      <c r="S134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>[19/06/2024 18:01:09] Pedro Augusto Tavares Dall Aglio: 19/06 Osasco - Tavares - 17:50</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>19/06/2024</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>PEDRO AUGUSTO TAVARES DALL AGLIO</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>19/06 OSASCO  -  TAVARES  -  17:50</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr"/>
+      <c r="Q135" t="inlineStr"/>
+      <c r="R135" t="inlineStr"/>
+      <c r="S135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>[25/06/2024 08:14:30] Rodrigo Martins Pereira: 25/06 ITAIM - pereira dispensa</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>25/06/2024</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>RODRIGO MARTINS PEREIRA</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>25/06 ITAIM  -  PEREIRA DISPENSA</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr"/>
+      <c r="Q136" t="inlineStr"/>
+      <c r="R136" t="inlineStr"/>
+      <c r="S136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>[20/06/2024 02:41:30] Thiago Francisco Martins: 19/06 ITAIM Thiago Martins saida 02:40</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>20/06/2024</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>THIAGO FRANCISCO MARTINS</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>19/06 ITAIM THIAGO MARTINS SAIDA 02:40</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr"/>
+      <c r="R137" t="inlineStr"/>
+      <c r="S137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>[21/06/2024 00:11:37] Thiago Silva Pinto: 20/06 SANTA - T. Silva - saída 00:10</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>21/06/2024</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>THIAGO SILVA PINTO</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>20/06 SANTA  -  T. SILVA  -  SAÍDA 00:10</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr"/>
+      <c r="R138" t="inlineStr"/>
+      <c r="S138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>[23/06/2024 12:10:28] Thiago Silva Pinto: 23/06 Anália - T. Silva entrada 08:10 (D3)</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>23/06/2024</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>THIAGO SILVA PINTO</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23/06 ANÁLIA  -  T. SILVA ENTRADA 08:10  ( D3 ) </t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr"/>
+      <c r="R139" t="inlineStr"/>
+      <c r="S139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>[23/06/2024 12:11:16] Thiago Silva Pinto: 23/06 Anália - T.Silva - saída 12:05 (D3)</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>23/06/2024</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>THIAGO SILVA PINTO</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23/06 ANÁLIA  -  T.SILVA  -  SAÍDA 12:05  ( D3 ) </t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>[25/06/2024 08:04:54] Vitor Oliveira André: 25/06 VNS Vitor dispensa</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>25/06/2024</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>VITOR OLIVEIRA ANDRE</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>25/06 VNS VITOR DISPENSA</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>[20/06/2024 05:16:14] Flavio Maia Castilho: 20/06 Morumbi - Castilho entrada 5:15</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>20/06/2024</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>FLAVIO MAIA CASTILHO</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>20/06 MORUMBI  -  CASTILHO ENTRADA 5:15</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>20/06/2024</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>MORUMBI</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
         <is>
           <t>05:00</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L142" t="inlineStr">
         <is>
           <t>07:00</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="M142" t="inlineStr">
         <is>
           <t>02:00</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="N142" t="inlineStr">
         <is>
           <t>6h</t>
         </is>
       </c>
-      <c r="O18" t="n">
+      <c r="O142" t="n">
         <v>1</v>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="P142" t="inlineStr">
         <is>
           <t>SEMANA - 6HS</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q142" t="inlineStr">
         <is>
           <t>semana</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="R142" t="inlineStr">
         <is>
           <t>MORUMBI</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="S142" t="inlineStr">
         <is>
           <t>SEMANA - 6HS</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>[23/06/2024 13:47:25] Karen Yumi Miyashiro: 23/06 Anália - Yumi saída 13:30</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>23/06/2024</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>KAREN YUMI MIYASHIRO</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>23/06 ANÁLIA  -  YUMI SAÍDA 13:30</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>23/06/2024</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>ANALIA</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>SAIDA</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>00:30</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>tarde</t>
+        </is>
+      </c>
+      <c r="O143" t="n">
+        <v>3</v>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>FDS - SAIDA</t>
+        </is>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>fds</t>
+        </is>
+      </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>ANALIA</t>
+        </is>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>FDS - SAIDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>[22/06/2024 16:36:20] Matheus Cardozo Janiques: 22/06 Santa - Cardozo saída 16:30</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>22/06/2024</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>MATHEUS CARDOZO JANIQUES</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>22/06 SANTA  -  CARDOZO SAÍDA 16:30</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>22/06/2024</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>SANTA ISABEL</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>SAIDA</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>03:30</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>tarde</t>
+        </is>
+      </c>
+      <c r="O144" t="n">
+        <v>3</v>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>FDS - SAIDA</t>
+        </is>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>fds</t>
+        </is>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>SANTA</t>
+        </is>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>FDS - SAIDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>[24/06/2024 09:13:23] Rafael Tadeu Marques: 24/06 Itaim Rafael Tadeu saída 7:00 ( extra) assumo rotina</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>24/06/2024</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>RAFAEL TADEU MARQUES</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>24/06 ITAIM RAFAEL TADEU SAÍDA 7:00  (  EXTRA )  ASSUMO ROTINA</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>PROBS</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>24/06/2024</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>ITAIM</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>extra</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>SAIDA</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>06:00</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>manha</t>
+        </is>
+      </c>
+      <c r="O145" t="n">
+        <v>2</v>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>SEMANA - MANHA - C.CIRURGICO</t>
+        </is>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>semana</t>
+        </is>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>ITAIM</t>
+        </is>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>SEMANA - MANHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>[25/06/2024 03:55:40] Rafael Tadeu Marques: 24/06 Itaim Rafael Tadeu saída 21:10</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>25/06/2024</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>RAFAEL TADEU MARQUES</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>24/06 ITAIM RAFAEL TADEU SAÍDA 21:10</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>24/06/2024</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>ITAIM</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>SAIDA</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>02:30</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>noturno saida</t>
+        </is>
+      </c>
+      <c r="O146" t="n">
+        <v>4</v>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>SEMANA - NOTURNO - SAIDA</t>
+        </is>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>semana</t>
+        </is>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>ITAIM</t>
+        </is>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>SEMANA - NOTURNO - SAIDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>[25/06/2024 03:56:35] Rafael Tadeu Marques: 25/06 VNS Rafael Tadeu entrada 3:20 ( extra) Deslocado Itaim</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>25/06/2024</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>RAFAEL TADEU MARQUES</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>25/06 VNS RAFAEL TADEU ENTRADA 3:20  (  EXTRA )  DESLOCADO ITAIM</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>25/06/2024</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>VNS</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>extra</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>04:00</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="O147" t="n">
+        <v>1</v>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>SEMANA - 6HS</t>
+        </is>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>semana</t>
+        </is>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>['VNS', 'ITAIM']</t>
+        </is>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>SEMANA - 6HS</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>[23/06/2024 05:33:02] Raphael Moura Britto: 23/06 Villa Britto entrada 05:30</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>23/06/2024</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>RAPHAEL MOURA BRITTO</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>23/06 VILLA BRITTO ENTRADA 05:30</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>23/06/2024</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>VILLA</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>05:30</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>01:30</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="O148" t="n">
+        <v>1</v>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>FDS - 6HS</t>
+        </is>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>fds</t>
+        </is>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>VILLA</t>
+        </is>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>FDS - 6HS</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>[20/06/2024 15:45:53] Renata Togeiro Bastos Godoy de Faria: 20/06 MORUMBI - Renata Togeiro entrada 4:15</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>20/06/2024</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>RENATA TOGEIRO BASTOS GODOY DE FARIA</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>20/06 MORUMBI  -  RENATA TOGEIRO ENTRADA 4:15</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>20/06/2024</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>MORUMBI</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>04:00</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+      <c r="O149" t="n">
+        <v>1</v>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>SEMANA - 6HS</t>
+        </is>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>semana</t>
+        </is>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>MORUMBI</t>
+        </is>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>SEMANA - 6HS</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>[23/06/2024 14:14:07] Ricardo Giraldelli Carvalho Lima: 23/06 OSASCO - Giraldelli saída 14:10</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>23/06/2024</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>RICARDO GIRALDELLI CARVALHO LIMA</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>23/06 OSASCO  -  GIRALDELLI SAÍDA 14:10</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>PROB</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>23/06/2024</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>OSASCO</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>SAIDA</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>01:30</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>tarde</t>
+        </is>
+      </c>
+      <c r="O150" t="n">
+        <v>3</v>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>FDS - SAIDA</t>
+        </is>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>fds</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>OSASCO</t>
+        </is>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>FDS - SAIDA</t>
         </is>
       </c>
     </row>
